--- a/sample_3sheets_clean.xlsx
+++ b/sample_3sheets_clean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\genus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69656DA6-5DF6-466B-826A-1A865DCF1434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3644A0D8-56C1-48CF-9080-60225E2A41E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feeders" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Meters" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">DTs!$A$1:$L$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Meters!$A$1:$K$241</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="326">
   <si>
     <t>Region Name</t>
   </si>
@@ -994,6 +995,15 @@
   </si>
   <si>
     <t>MTR-F006DT004-10</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1358,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1431,10 +1441,10 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1463,10 +1473,10 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1495,10 +1505,10 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1527,10 +1537,10 @@
         <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1553,16 +1563,16 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>324</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1591,10 +1601,10 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1606,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1676,16 +1686,16 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1714,10 +1724,10 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -1752,10 +1762,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>12</v>
@@ -1790,10 +1800,10 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -1828,10 +1838,10 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
@@ -1866,10 +1876,10 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
@@ -1904,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1942,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
         <v>12</v>
@@ -1980,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
@@ -2018,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -2056,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -2094,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -2132,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -2170,10 +2180,10 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K15" t="s">
         <v>12</v>
@@ -2208,13 +2218,13 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L16" t="s">
         <v>12</v>
@@ -2246,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L17" t="s">
         <v>12</v>
@@ -2284,13 +2294,13 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L18" t="s">
         <v>12</v>
@@ -2322,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L19" t="s">
         <v>12</v>
@@ -2360,13 +2370,13 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K20" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L20" t="s">
         <v>12</v>
@@ -2398,13 +2408,13 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L21" t="s">
         <v>12</v>
@@ -2436,13 +2446,13 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L22" t="s">
         <v>12</v>
@@ -2474,13 +2484,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K23" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L23" t="s">
         <v>12</v>
@@ -2512,13 +2522,13 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L24" t="s">
         <v>12</v>
@@ -2550,19 +2560,20 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="L25" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L25" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2572,7 +2583,7 @@
   <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2673,10 +2684,10 @@
         <v>204</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>12</v>
@@ -2743,7 +2754,7 @@
         <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2874,7 +2885,7 @@
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3075,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3206,7 +3217,7 @@
         <v>12</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3407,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="K25" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3538,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="K29" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -3739,7 +3750,7 @@
         <v>12</v>
       </c>
       <c r="K35" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -3870,7 +3881,7 @@
         <v>12</v>
       </c>
       <c r="K39" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -4071,7 +4082,7 @@
         <v>12</v>
       </c>
       <c r="K45" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
@@ -4202,7 +4213,7 @@
         <v>12</v>
       </c>
       <c r="K49" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -4403,7 +4414,7 @@
         <v>12</v>
       </c>
       <c r="K55" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
@@ -4534,7 +4545,7 @@
         <v>12</v>
       </c>
       <c r="K59" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
@@ -4735,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="K65" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
@@ -4866,7 +4877,7 @@
         <v>12</v>
       </c>
       <c r="K69" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
@@ -5067,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="K75" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
@@ -5198,7 +5209,7 @@
         <v>12</v>
       </c>
       <c r="K79" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
@@ -5399,7 +5410,7 @@
         <v>12</v>
       </c>
       <c r="K85" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -5530,7 +5541,7 @@
         <v>12</v>
       </c>
       <c r="K89" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -5731,7 +5742,7 @@
         <v>12</v>
       </c>
       <c r="K95" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -5862,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="K99" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
